--- a/volcanic_test/hydrogenation/reaction_data.xlsx
+++ b/volcanic_test/hydrogenation/reaction_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\pregabalin\RF\spectre\volcanic_test\hydrogenation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0C3F9-22E4-4A8A-9A34-D87061BB2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF4711-280A-4E2A-8FF7-C86A56A306EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="13860" windowHeight="8184" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
     <t>INT6</t>
   </si>
   <si>
-    <t>R</t>
+    <t>INT2</t>
   </si>
 </sst>
 </file>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
